--- a/Code/Results/Cases/Case_2_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_236/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.30264649526351</v>
+        <v>17.32760709562003</v>
       </c>
       <c r="C2">
-        <v>13.10298174316482</v>
+        <v>9.99500740966505</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.311203174948313</v>
+        <v>11.87643728691151</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>36.55773771951548</v>
+        <v>41.61356247847298</v>
       </c>
       <c r="H2">
-        <v>11.73382695135444</v>
+        <v>17.33874157550721</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.172241136119906</v>
+        <v>9.943767619822152</v>
       </c>
       <c r="M2">
-        <v>12.51098032730182</v>
+        <v>15.80158355771137</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.81762413579164</v>
+        <v>16.89701134452678</v>
       </c>
       <c r="C3">
-        <v>12.46037320790583</v>
+        <v>9.714379212797462</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.383476634669075</v>
+        <v>11.90380596876102</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>35.54515200190075</v>
+        <v>41.61413470990394</v>
       </c>
       <c r="H3">
-        <v>11.70937709658228</v>
+        <v>17.40073297276193</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.096983054346694</v>
+        <v>9.953925659288032</v>
       </c>
       <c r="M3">
-        <v>11.94730821208089</v>
+        <v>15.72241238983523</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.85615774765162</v>
+        <v>16.63087262646854</v>
       </c>
       <c r="C4">
-        <v>12.04981803118895</v>
+        <v>9.536216056788705</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.429477573290883</v>
+        <v>11.92153233572924</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>34.97378506015431</v>
+        <v>41.63227219992317</v>
       </c>
       <c r="H4">
-        <v>11.70838700826583</v>
+        <v>17.44312919987022</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.05359876001873</v>
+        <v>9.961575407141288</v>
       </c>
       <c r="M4">
-        <v>11.59468278068167</v>
+        <v>15.6765666704846</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.45174491164699</v>
+        <v>16.52214761648499</v>
       </c>
       <c r="C5">
-        <v>11.87856592061838</v>
+        <v>9.462204150808558</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.448636105304783</v>
+        <v>11.92898843182667</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>34.7534290267997</v>
+        <v>41.64410959397491</v>
       </c>
       <c r="H5">
-        <v>11.71131878729517</v>
+        <v>17.46149067178107</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.036623625850736</v>
+        <v>9.965048146637031</v>
       </c>
       <c r="M5">
-        <v>11.4495165900992</v>
+        <v>15.65859376293269</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.38382766197458</v>
+        <v>16.50408259685159</v>
       </c>
       <c r="C6">
-        <v>11.84989382166924</v>
+        <v>9.449831396442642</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.451842418767904</v>
+        <v>11.93024056967532</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>34.71758638351174</v>
+        <v>41.64634286431748</v>
       </c>
       <c r="H6">
-        <v>11.71200151242907</v>
+        <v>17.46460494419028</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.033847271315226</v>
+        <v>9.965646262032484</v>
       </c>
       <c r="M6">
-        <v>11.42532877914483</v>
+        <v>15.65565262802648</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.85075489504127</v>
+        <v>16.62940719320024</v>
       </c>
       <c r="C7">
-        <v>12.04752433466646</v>
+        <v>9.535223523167806</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.429734275051421</v>
+        <v>11.92163194917804</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>34.97076301227353</v>
+        <v>41.63241387898473</v>
       </c>
       <c r="H7">
-        <v>11.70841329343893</v>
+        <v>17.44337244404198</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.053366983926923</v>
+        <v>9.961620802510316</v>
       </c>
       <c r="M7">
-        <v>11.592730714725</v>
+        <v>15.67632139048565</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.8008410950545</v>
+        <v>17.17960034201874</v>
       </c>
       <c r="C8">
-        <v>12.88476618854054</v>
+        <v>9.899498809751272</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.335788401000368</v>
+        <v>11.88568305817389</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>36.19805029096149</v>
+        <v>41.61005394943808</v>
       </c>
       <c r="H8">
-        <v>11.72237098534085</v>
+        <v>17.35921388293607</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.145702502114187</v>
+        <v>9.946977033892288</v>
       </c>
       <c r="M8">
-        <v>12.31807620721192</v>
+        <v>15.77372007418694</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.23693416232406</v>
+        <v>18.23758951297545</v>
       </c>
       <c r="C9">
-        <v>14.3976649019072</v>
+        <v>10.56485065372943</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.164259966321625</v>
+        <v>11.82247281856933</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>39.01040348713008</v>
+        <v>41.70826899437724</v>
       </c>
       <c r="H9">
-        <v>11.86961648095845</v>
+        <v>17.22877992934502</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.349444674107884</v>
+        <v>9.929460479222472</v>
       </c>
       <c r="M9">
-        <v>13.68255238036624</v>
+        <v>15.98600175913888</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.53398098337412</v>
+        <v>18.99331098030234</v>
       </c>
       <c r="C10">
-        <v>15.42940705393518</v>
+        <v>11.02080856860326</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.045713606804177</v>
+        <v>11.78043256648217</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>41.33075024021883</v>
+        <v>41.86796436595283</v>
       </c>
       <c r="H10">
-        <v>12.06276471808691</v>
+        <v>17.15433629800227</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.513352040963054</v>
+        <v>9.923404649073515</v>
       </c>
       <c r="M10">
-        <v>14.92216566374053</v>
+        <v>16.15399996435096</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.53180460932349</v>
+        <v>19.33074748972407</v>
       </c>
       <c r="C11">
-        <v>15.88160434771681</v>
+        <v>11.22055959674838</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.993351709564047</v>
+        <v>11.76225412895838</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>42.4430147290507</v>
+        <v>41.95970802879116</v>
       </c>
       <c r="H11">
-        <v>12.17166097093278</v>
+        <v>17.12517412722551</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.591109015337931</v>
+        <v>9.92212497010105</v>
       </c>
       <c r="M11">
-        <v>15.46830235796376</v>
+        <v>16.23282445686161</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.90308174648456</v>
+        <v>19.45748774427999</v>
       </c>
       <c r="C12">
-        <v>16.05041014429113</v>
+        <v>11.29505883379049</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.973744618546044</v>
+        <v>11.75550578839606</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>42.87251854942997</v>
+        <v>41.99719338906736</v>
       </c>
       <c r="H12">
-        <v>12.21613612018452</v>
+        <v>17.11481216256185</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.621023369188809</v>
+        <v>9.921852017246684</v>
       </c>
       <c r="M12">
-        <v>15.67159091495439</v>
+        <v>16.26299939030262</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.82340973420889</v>
+        <v>19.43024011682015</v>
       </c>
       <c r="C13">
-        <v>16.01416219711568</v>
+        <v>11.27906547395966</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.977957576278661</v>
+        <v>11.75695314972852</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>42.779644365279</v>
+        <v>41.98899829865286</v>
       </c>
       <c r="H13">
-        <v>12.20641012172414</v>
+        <v>17.11701342800529</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.614559710439491</v>
+        <v>9.921901398626725</v>
       </c>
       <c r="M13">
-        <v>15.62796385428059</v>
+        <v>16.25648650379471</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.56248041580129</v>
+        <v>19.34119601457431</v>
       </c>
       <c r="C14">
-        <v>15.89554057194184</v>
+        <v>11.22671179623913</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.991734209996961</v>
+        <v>11.76169622780538</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>42.47818255430625</v>
+        <v>41.96273700985203</v>
       </c>
       <c r="H14">
-        <v>12.17525382540694</v>
+        <v>17.12430796412097</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.593560611649972</v>
+        <v>9.92209827571194</v>
       </c>
       <c r="M14">
-        <v>15.48509694320261</v>
+        <v>16.23530055056036</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.40180334412107</v>
+        <v>19.28651494049741</v>
       </c>
       <c r="C15">
-        <v>15.82256607620734</v>
+        <v>11.19449381127103</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.00020149513922</v>
+        <v>11.76461912121001</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>42.29461674301875</v>
+        <v>41.94700840566226</v>
       </c>
       <c r="H15">
-        <v>12.15659785369185</v>
+        <v>17.12886492202516</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.580759537983148</v>
+        <v>9.922246413804512</v>
       </c>
       <c r="M15">
-        <v>15.39713164861515</v>
+        <v>16.22236538514815</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.4678393107054</v>
+        <v>18.97111992242784</v>
       </c>
       <c r="C16">
-        <v>15.39951236200422</v>
+        <v>11.00759660610023</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.049166742449242</v>
+        <v>11.78163955421713</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>41.2592147524446</v>
+        <v>41.86235293421313</v>
       </c>
       <c r="H16">
-        <v>12.05608954399737</v>
+        <v>17.15633716416075</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.508335533304028</v>
+        <v>9.923517922528205</v>
       </c>
       <c r="M16">
-        <v>14.88597536907237</v>
+        <v>16.14889526399313</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.88295071246305</v>
+        <v>18.77591639630825</v>
       </c>
       <c r="C17">
-        <v>15.13560937289817</v>
+        <v>10.89094800993943</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.079603437880399</v>
+        <v>11.79232288932582</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>40.63865319313628</v>
+        <v>41.81531109732403</v>
       </c>
       <c r="H17">
-        <v>11.99996919750058</v>
+        <v>17.17439847047378</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.464730442803475</v>
+        <v>9.924675446119116</v>
       </c>
       <c r="M17">
-        <v>14.56600512439924</v>
+        <v>16.1044250501259</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.54209074151644</v>
+        <v>18.6630502234107</v>
       </c>
       <c r="C18">
-        <v>14.98220216428628</v>
+        <v>10.82313530245762</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.097257385871145</v>
+        <v>11.79855672641811</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>40.28705017671721</v>
+        <v>41.79005190502562</v>
       </c>
       <c r="H18">
-        <v>11.96965696111787</v>
+        <v>17.18522920519198</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.439949923997506</v>
+        <v>9.925480104895305</v>
       </c>
       <c r="M18">
-        <v>14.37958302715126</v>
+        <v>16.0790741807605</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.42591180646648</v>
+        <v>18.62473834317094</v>
       </c>
       <c r="C19">
-        <v>14.92998261854522</v>
+        <v>10.80005278774169</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.103260176410743</v>
+        <v>11.80068271128337</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>40.1689145519108</v>
+        <v>41.78180836344195</v>
       </c>
       <c r="H19">
-        <v>11.95972506655409</v>
+        <v>17.18897212832664</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.431610917733342</v>
+        <v>9.925776415399797</v>
       </c>
       <c r="M19">
-        <v>14.3160511537168</v>
+        <v>16.0705304225622</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.94567202693928</v>
+        <v>18.7967581897669</v>
       </c>
       <c r="C20">
-        <v>15.16386947899933</v>
+        <v>10.90344022096945</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.076348156177568</v>
+        <v>11.79117641635519</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>40.70416068935882</v>
+        <v>41.82013269035434</v>
       </c>
       <c r="H20">
-        <v>12.0057382169649</v>
+        <v>17.1724299964253</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.469341167290306</v>
+        <v>9.924537855367037</v>
       </c>
       <c r="M20">
-        <v>14.6003124472066</v>
+        <v>16.10913560332806</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.639298509729</v>
+        <v>19.36737960394637</v>
       </c>
       <c r="C21">
-        <v>15.9304482453352</v>
+        <v>11.24212063305282</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.987681704360053</v>
+        <v>11.76029939959686</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>42.56650204187215</v>
+        <v>41.97037615984284</v>
       </c>
       <c r="H21">
-        <v>12.18431556976144</v>
+        <v>17.12214685854084</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.599715721877694</v>
+        <v>9.922034708721581</v>
       </c>
       <c r="M21">
-        <v>15.52715506824741</v>
+        <v>16.24151469408604</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.70795114327526</v>
+        <v>19.73420216153202</v>
       </c>
       <c r="C22">
-        <v>16.41730803631976</v>
+        <v>11.45679513116696</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.931020931007197</v>
+        <v>11.74090866330319</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>43.83222496427027</v>
+        <v>42.08455829272479</v>
       </c>
       <c r="H22">
-        <v>12.32000480012351</v>
+        <v>17.09325614694903</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.687666098801034</v>
+        <v>9.921632043583267</v>
       </c>
       <c r="M22">
-        <v>16.11243266338435</v>
+        <v>16.32992176258622</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.14101880396086</v>
+        <v>19.53902064031728</v>
       </c>
       <c r="C23">
-        <v>16.15873988217984</v>
+        <v>11.34284188920008</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.961145216147441</v>
+        <v>11.75118584372302</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475857</v>
       </c>
       <c r="G23">
-        <v>43.15217254090767</v>
+        <v>42.02215627183113</v>
       </c>
       <c r="H23">
-        <v>12.24577665083425</v>
+        <v>17.10831062976456</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.64047032323604</v>
+        <v>9.921734288266311</v>
       </c>
       <c r="M23">
-        <v>15.8018928254288</v>
+        <v>16.28257090735248</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.91733006251441</v>
+        <v>18.78733760193189</v>
       </c>
       <c r="C24">
-        <v>15.15109833848408</v>
+        <v>10.89779482505635</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.077819384430612</v>
+        <v>11.79169445066073</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>40.67452866999574</v>
+        <v>41.81794728552549</v>
       </c>
       <c r="H24">
-        <v>12.00312397908062</v>
+        <v>17.17331855137447</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.467255760461891</v>
+        <v>9.924599626575825</v>
       </c>
       <c r="M24">
-        <v>14.58480979865442</v>
+        <v>16.10700528902436</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.34802676562054</v>
+        <v>17.95456395407842</v>
       </c>
       <c r="C25">
-        <v>14.00238633922974</v>
+        <v>10.39043046679876</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.209331134792107</v>
+        <v>11.83879717443682</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295691</v>
       </c>
       <c r="G25">
-        <v>38.20540670350469</v>
+        <v>41.66637325312899</v>
       </c>
       <c r="H25">
-        <v>11.81572699042385</v>
+        <v>17.26033084498384</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.291860642321261</v>
+        <v>9.933001351919108</v>
       </c>
       <c r="M25">
-        <v>13.32036568412477</v>
+        <v>15.92638937195609</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_236/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.32760709562003</v>
+        <v>21.30264649526351</v>
       </c>
       <c r="C2">
-        <v>9.99500740966505</v>
+        <v>13.10298174316462</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.87643728691151</v>
+        <v>7.311203174948113</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>41.61356247847298</v>
+        <v>36.55773771951573</v>
       </c>
       <c r="H2">
-        <v>17.33874157550721</v>
+        <v>11.73382695135463</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.943767619822152</v>
+        <v>6.172241136119859</v>
       </c>
       <c r="M2">
-        <v>15.80158355771137</v>
+        <v>12.51098032730182</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.89701134452678</v>
+        <v>19.81762413579161</v>
       </c>
       <c r="C3">
-        <v>9.714379212797462</v>
+        <v>12.46037320790571</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.90380596876102</v>
+        <v>7.383476634669006</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>41.61413470990394</v>
+        <v>35.54515200190107</v>
       </c>
       <c r="H3">
-        <v>17.40073297276193</v>
+        <v>11.70937709658233</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.953925659288032</v>
+        <v>6.096983054346692</v>
       </c>
       <c r="M3">
-        <v>15.72241238983523</v>
+        <v>11.9473082120809</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.63087262646854</v>
+        <v>18.85615774765153</v>
       </c>
       <c r="C4">
-        <v>9.536216056788705</v>
+        <v>12.04981803118917</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.92153233572924</v>
+        <v>7.429477573290745</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>41.63227219992317</v>
+        <v>34.97378506015443</v>
       </c>
       <c r="H4">
-        <v>17.44312919987022</v>
+        <v>11.70838700826596</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.961575407141288</v>
+        <v>6.053598760018655</v>
       </c>
       <c r="M4">
-        <v>15.6765666704846</v>
+        <v>11.59468278068169</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.52214761648499</v>
+        <v>18.45174491164701</v>
       </c>
       <c r="C5">
-        <v>9.462204150808558</v>
+        <v>11.87856592061851</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.92898843182667</v>
+        <v>7.448636105304717</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>41.64410959397491</v>
+        <v>34.75342902679942</v>
       </c>
       <c r="H5">
-        <v>17.46149067178107</v>
+        <v>11.71131878729514</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.965048146637031</v>
+        <v>6.03662362585069</v>
       </c>
       <c r="M5">
-        <v>15.65859376293269</v>
+        <v>11.44951659009918</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.50408259685159</v>
+        <v>18.38382766197454</v>
       </c>
       <c r="C6">
-        <v>9.449831396442642</v>
+        <v>11.84989382166936</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.93024056967532</v>
+        <v>7.451842418768101</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>41.64634286431748</v>
+        <v>34.71758638351176</v>
       </c>
       <c r="H6">
-        <v>17.46460494419028</v>
+        <v>11.71200151242904</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.965646262032484</v>
+        <v>6.033847271315277</v>
       </c>
       <c r="M6">
-        <v>15.65565262802648</v>
+        <v>11.42532877914487</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.62940719320024</v>
+        <v>18.85075489504132</v>
       </c>
       <c r="C7">
-        <v>9.535223523167806</v>
+        <v>12.04752433466631</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.92163194917804</v>
+        <v>7.42973427505142</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>41.63241387898473</v>
+        <v>34.97076301227318</v>
       </c>
       <c r="H7">
-        <v>17.44337244404198</v>
+        <v>11.70841329343881</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.961620802510316</v>
+        <v>6.053366983926949</v>
       </c>
       <c r="M7">
-        <v>15.67632139048565</v>
+        <v>11.59273071472499</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.17960034201874</v>
+        <v>20.80084109505454</v>
       </c>
       <c r="C8">
-        <v>9.899498809751272</v>
+        <v>12.88476618854037</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.88568305817389</v>
+        <v>7.335788401000169</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>41.61005394943808</v>
+        <v>36.19805029096148</v>
       </c>
       <c r="H8">
-        <v>17.35921388293607</v>
+        <v>11.72237098534088</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.946977033892288</v>
+        <v>6.145702502114168</v>
       </c>
       <c r="M8">
-        <v>15.77372007418694</v>
+        <v>12.31807620721189</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.23758951297545</v>
+        <v>24.23693416232412</v>
       </c>
       <c r="C9">
-        <v>10.56485065372943</v>
+        <v>14.39766490190693</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.82247281856933</v>
+        <v>7.164259966321563</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>41.70826899437724</v>
+        <v>39.01040348712999</v>
       </c>
       <c r="H9">
-        <v>17.22877992934502</v>
+        <v>11.86961648095845</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.929460479222472</v>
+        <v>6.349444674107921</v>
       </c>
       <c r="M9">
-        <v>15.98600175913888</v>
+        <v>13.68255238036623</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.99331098030234</v>
+        <v>26.53398098337413</v>
       </c>
       <c r="C10">
-        <v>11.02080856860326</v>
+        <v>15.42940705393545</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.78043256648217</v>
+        <v>7.045713606804243</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.86796436595283</v>
+        <v>41.33075024021865</v>
       </c>
       <c r="H10">
-        <v>17.15433629800227</v>
+        <v>12.06276471808676</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.923404649073515</v>
+        <v>6.513352040963008</v>
       </c>
       <c r="M10">
-        <v>16.15399996435096</v>
+        <v>14.92216566374056</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.33074748972407</v>
+        <v>27.53180460932361</v>
       </c>
       <c r="C11">
-        <v>11.22055959674838</v>
+        <v>15.88160434771683</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.76225412895838</v>
+        <v>6.993351709564112</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>41.95970802879116</v>
+        <v>42.44301472905054</v>
       </c>
       <c r="H11">
-        <v>17.12517412722551</v>
+        <v>12.17166097093271</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.92212497010105</v>
+        <v>6.591109015337968</v>
       </c>
       <c r="M11">
-        <v>16.23282445686161</v>
+        <v>15.46830235796378</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.45748774427999</v>
+        <v>27.90308174648454</v>
       </c>
       <c r="C12">
-        <v>11.29505883379049</v>
+        <v>16.05041014429104</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.75550578839606</v>
+        <v>6.973744618546046</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>41.99719338906736</v>
+        <v>42.87251854943005</v>
       </c>
       <c r="H12">
-        <v>17.11481216256185</v>
+        <v>12.21613612018452</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.921852017246684</v>
+        <v>6.621023369188825</v>
       </c>
       <c r="M12">
-        <v>16.26299939030262</v>
+        <v>15.67159091495438</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.43024011682015</v>
+        <v>27.82340973420885</v>
       </c>
       <c r="C13">
-        <v>11.27906547395966</v>
+        <v>16.01416219711578</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.75695314972852</v>
+        <v>6.977957576278657</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>41.98899829865286</v>
+        <v>42.779644365279</v>
       </c>
       <c r="H13">
-        <v>17.11701342800529</v>
+        <v>12.20641012172413</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.921901398626725</v>
+        <v>6.614559710439432</v>
       </c>
       <c r="M13">
-        <v>16.25648650379471</v>
+        <v>15.62796385428058</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.34119601457431</v>
+        <v>27.56248041580129</v>
       </c>
       <c r="C14">
-        <v>11.22671179623913</v>
+        <v>15.89554057194183</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.76169622780538</v>
+        <v>6.991734209997031</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>41.96273700985203</v>
+        <v>42.47818255430654</v>
       </c>
       <c r="H14">
-        <v>17.12430796412097</v>
+        <v>12.17525382540696</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.92209827571194</v>
+        <v>6.593560611649966</v>
       </c>
       <c r="M14">
-        <v>16.23530055056036</v>
+        <v>15.48509694320264</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.28651494049741</v>
+        <v>27.40180334412106</v>
       </c>
       <c r="C15">
-        <v>11.19449381127103</v>
+        <v>15.82256607620726</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.76461912121001</v>
+        <v>7.000201495139223</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>41.94700840566226</v>
+        <v>42.29461674301873</v>
       </c>
       <c r="H15">
-        <v>17.12886492202516</v>
+        <v>12.15659785369187</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.922246413804512</v>
+        <v>6.58075953798317</v>
       </c>
       <c r="M15">
-        <v>16.22236538514815</v>
+        <v>15.39713164861514</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.97111992242784</v>
+        <v>26.4678393107054</v>
       </c>
       <c r="C16">
-        <v>11.00759660610023</v>
+        <v>15.39951236200412</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.78163955421713</v>
+        <v>7.049166742449107</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>41.86235293421313</v>
+        <v>41.25921475244459</v>
       </c>
       <c r="H16">
-        <v>17.15633716416075</v>
+        <v>12.05608954399735</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.923517922528205</v>
+        <v>6.508335533304005</v>
       </c>
       <c r="M16">
-        <v>16.14889526399313</v>
+        <v>14.88597536907238</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.77591639630825</v>
+        <v>25.88295071246308</v>
       </c>
       <c r="C17">
-        <v>10.89094800993943</v>
+        <v>15.13560937289819</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.79232288932582</v>
+        <v>7.079603437880465</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>41.81531109732403</v>
+        <v>40.63865319313631</v>
       </c>
       <c r="H17">
-        <v>17.17439847047378</v>
+        <v>11.99996919750056</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.924675446119116</v>
+        <v>6.464730442803457</v>
       </c>
       <c r="M17">
-        <v>16.1044250501259</v>
+        <v>14.56600512439926</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.6630502234107</v>
+        <v>25.54209074151639</v>
       </c>
       <c r="C18">
-        <v>10.82313530245762</v>
+        <v>14.98220216428624</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.79855672641811</v>
+        <v>7.097257385871081</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>41.79005190502562</v>
+        <v>40.28705017671748</v>
       </c>
       <c r="H18">
-        <v>17.18522920519198</v>
+        <v>11.96965696111801</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.925480104895305</v>
+        <v>6.439949923997508</v>
       </c>
       <c r="M18">
-        <v>16.0790741807605</v>
+        <v>14.37958302715125</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.62473834317094</v>
+        <v>25.42591180646637</v>
       </c>
       <c r="C19">
-        <v>10.80005278774169</v>
+        <v>14.92998261854531</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.80068271128337</v>
+        <v>7.103260176410739</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>41.78180836344195</v>
+        <v>40.16891455191102</v>
       </c>
       <c r="H19">
-        <v>17.18897212832664</v>
+        <v>11.95972506655422</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.925776415399797</v>
+        <v>6.431610917733262</v>
       </c>
       <c r="M19">
-        <v>16.0705304225622</v>
+        <v>14.31605115371676</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.7967581897669</v>
+        <v>25.94567202693928</v>
       </c>
       <c r="C20">
-        <v>10.90344022096945</v>
+        <v>15.16386947899944</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.79117641635519</v>
+        <v>7.0763481561777</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>41.82013269035434</v>
+        <v>40.70416068935869</v>
       </c>
       <c r="H20">
-        <v>17.1724299964253</v>
+        <v>12.00573821696486</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.924537855367037</v>
+        <v>6.46934116729035</v>
       </c>
       <c r="M20">
-        <v>16.10913560332806</v>
+        <v>14.6003124472066</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.36737960394637</v>
+        <v>27.63929850972902</v>
       </c>
       <c r="C21">
-        <v>11.24212063305282</v>
+        <v>15.93044824533532</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.76029939959686</v>
+        <v>6.98768170436005</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>41.97037615984284</v>
+        <v>42.56650204187197</v>
       </c>
       <c r="H21">
-        <v>17.12214685854084</v>
+        <v>12.18431556976134</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.922034708721581</v>
+        <v>6.599715721877655</v>
       </c>
       <c r="M21">
-        <v>16.24151469408604</v>
+        <v>15.52715506824745</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.73420216153202</v>
+        <v>28.70795114327523</v>
       </c>
       <c r="C22">
-        <v>11.45679513116696</v>
+        <v>16.41730803631949</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.74090866330319</v>
+        <v>6.931020931007128</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>42.08455829272479</v>
+        <v>43.83222496427027</v>
       </c>
       <c r="H22">
-        <v>17.09325614694903</v>
+        <v>12.32000480012351</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.921632043583267</v>
+        <v>6.687666098801063</v>
       </c>
       <c r="M22">
-        <v>16.32992176258622</v>
+        <v>16.11243266338434</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.53902064031728</v>
+        <v>28.1410188039609</v>
       </c>
       <c r="C23">
-        <v>11.34284188920008</v>
+        <v>16.15873988217993</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.75118584372302</v>
+        <v>6.961145216147507</v>
       </c>
       <c r="F23">
-        <v>21.82633154475857</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>42.02215627183113</v>
+        <v>43.15217254090767</v>
       </c>
       <c r="H23">
-        <v>17.10831062976456</v>
+        <v>12.24577665083421</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.921734288266311</v>
+        <v>6.640470323236007</v>
       </c>
       <c r="M23">
-        <v>16.28257090735248</v>
+        <v>15.80189282542883</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.78733760193189</v>
+        <v>25.91733006251443</v>
       </c>
       <c r="C24">
-        <v>10.89779482505635</v>
+        <v>15.15109833848408</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.79169445066073</v>
+        <v>7.077819384430676</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>41.81794728552549</v>
+        <v>40.67452866999546</v>
       </c>
       <c r="H24">
-        <v>17.17331855137447</v>
+        <v>12.00312397908048</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.924599626575825</v>
+        <v>6.467255760461896</v>
       </c>
       <c r="M24">
-        <v>16.10700528902436</v>
+        <v>14.58480979865445</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.95456395407842</v>
+        <v>23.3480267656205</v>
       </c>
       <c r="C25">
-        <v>10.39043046679876</v>
+        <v>14.00238633922994</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.83879717443682</v>
+        <v>7.209331134792042</v>
       </c>
       <c r="F25">
-        <v>18.34778573295691</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>41.66637325312899</v>
+        <v>38.2054067035046</v>
       </c>
       <c r="H25">
-        <v>17.26033084498384</v>
+        <v>11.81572699042384</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.933001351919108</v>
+        <v>6.291860642321194</v>
       </c>
       <c r="M25">
-        <v>15.92638937195609</v>
+        <v>13.32036568412476</v>
       </c>
       <c r="N25">
         <v>0</v>
